--- a/2023/Results.xlsx
+++ b/2023/Results.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\2023\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\cec upload\IEEE-CEC-NAS-Competition\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E9F44E-12A4-40BC-83C3-075466F902C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADDDE3C-03F2-4200-A03C-92A0936ACFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="C-10MOP HV" sheetId="7" r:id="rId1"/>
-    <sheet name="IN-1KMOP HV" sheetId="8" r:id="rId2"/>
-    <sheet name="Final Rank" sheetId="12" r:id="rId3"/>
+    <sheet name="Final Rank" sheetId="12" r:id="rId1"/>
+    <sheet name="C-10MOP HV" sheetId="7" r:id="rId2"/>
+    <sheet name="IN-1KMOP HV" sheetId="8" r:id="rId3"/>
     <sheet name="C-10MOP1-C-10MOP7 IGD" sheetId="13" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -380,26 +380,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.6596 (0.0166)-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.7280 (0.0035)-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5808 (0.0058)-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.9511 (0.0037)-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.9322 (0.0052)-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.9040 (0.0076)-</t>
   </si>
   <si>
@@ -656,10 +640,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.7077 (0.0123)-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.8115 (0.0048)=</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -692,10 +672,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.3724 (0.0530)-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.6075 (0.0123)-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -705,10 +681,6 @@
   </si>
   <si>
     <t>0.6101 (0.0053)-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.1825 (0.0563)-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1039,9 +1011,6 @@
     <t>0.0686 (0.0024)-</t>
   </si>
   <si>
-    <t>0.0783 (0.0032)-</t>
-  </si>
-  <si>
     <t>0.0768 (0.0057)-</t>
   </si>
   <si>
@@ -1090,9 +1059,6 @@
     <t>0.0147 (0.0054)-</t>
   </si>
   <si>
-    <t>0.1102 (0.0192)-</t>
-  </si>
-  <si>
     <t>0.1184 (0.0217)-</t>
   </si>
   <si>
@@ -1114,9 +1080,6 @@
     <t>0.0589 (0.0045)-</t>
   </si>
   <si>
-    <t>0.1769 (0.0189)-</t>
-  </si>
-  <si>
     <t>0.2118 (0.0266)-</t>
   </si>
   <si>
@@ -1204,6 +1167,43 @@
   <si>
     <t>Baseline</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7594 (0.0095)-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7379 (0.0003)-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5780 (0.0053)-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9324 (0.0034)-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7955 (0.0040)-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6742 (0.0076)-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5700 (0.0097)-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0714 (0.0051)-</t>
+  </si>
+  <si>
+    <t>0.0199 (0.0048)-</t>
+  </si>
+  <si>
+    <t>0.0907 (0.0099)-</t>
   </si>
 </sst>
 </file>
@@ -1730,10 +1730,1021 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A6BE76-0B54-496F-9B94-087E467369C9}">
+  <dimension ref="A1:AB11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.58203125" style="1"/>
+    <col min="2" max="3" width="18.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.83203125" customWidth="1"/>
+    <col min="5" max="5" width="42.33203125" customWidth="1"/>
+    <col min="6" max="6" width="40.83203125" customWidth="1"/>
+    <col min="7" max="7" width="27.25" customWidth="1"/>
+    <col min="8" max="25" width="11.58203125" customWidth="1"/>
+    <col min="27" max="27" width="14.33203125" customWidth="1"/>
+    <col min="28" max="28" width="12.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="H2" s="9">
+        <v>1</v>
+      </c>
+      <c r="I2" s="9">
+        <v>2</v>
+      </c>
+      <c r="J2" s="9">
+        <v>2</v>
+      </c>
+      <c r="K2" s="9">
+        <v>1</v>
+      </c>
+      <c r="L2" s="9">
+        <v>1</v>
+      </c>
+      <c r="M2" s="9">
+        <v>1</v>
+      </c>
+      <c r="N2" s="9">
+        <v>3</v>
+      </c>
+      <c r="O2" s="9">
+        <v>1</v>
+      </c>
+      <c r="P2" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>2</v>
+      </c>
+      <c r="R2" s="9">
+        <v>2</v>
+      </c>
+      <c r="S2" s="9">
+        <v>1</v>
+      </c>
+      <c r="T2" s="9">
+        <v>1</v>
+      </c>
+      <c r="U2" s="9">
+        <v>1</v>
+      </c>
+      <c r="V2" s="9">
+        <v>1</v>
+      </c>
+      <c r="W2" s="9">
+        <v>2</v>
+      </c>
+      <c r="X2" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="9">
+        <v>4</v>
+      </c>
+      <c r="Z2" s="9">
+        <f>SUM(H2:Y2)</f>
+        <v>28</v>
+      </c>
+      <c r="AA2" s="9">
+        <f>Z2*100/180</f>
+        <v>15.555555555555555</v>
+      </c>
+      <c r="AB2" s="13">
+        <f>RANK(AA2,AA2:AA11,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="H3" s="9">
+        <v>3</v>
+      </c>
+      <c r="I3" s="9">
+        <v>3</v>
+      </c>
+      <c r="J3" s="9">
+        <v>1</v>
+      </c>
+      <c r="K3" s="9">
+        <v>1</v>
+      </c>
+      <c r="L3" s="9">
+        <v>3</v>
+      </c>
+      <c r="M3" s="9">
+        <v>2</v>
+      </c>
+      <c r="N3" s="9">
+        <v>1</v>
+      </c>
+      <c r="O3" s="9">
+        <v>3</v>
+      </c>
+      <c r="P3" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>4</v>
+      </c>
+      <c r="R3" s="9">
+        <v>3</v>
+      </c>
+      <c r="S3" s="9">
+        <v>1</v>
+      </c>
+      <c r="T3" s="9">
+        <v>3</v>
+      </c>
+      <c r="U3" s="9">
+        <v>3</v>
+      </c>
+      <c r="V3" s="9">
+        <v>3</v>
+      </c>
+      <c r="W3" s="9">
+        <v>6</v>
+      </c>
+      <c r="X3" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="9">
+        <f t="shared" ref="Z3:Z11" si="0">SUM(H3:Y3)</f>
+        <v>45</v>
+      </c>
+      <c r="AA3" s="9">
+        <f t="shared" ref="AA3:AA11" si="1">Z3*100/180</f>
+        <v>25</v>
+      </c>
+      <c r="AB3" s="13">
+        <f>RANK(AA3,AA2:AA11,1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="H4" s="9">
+        <v>1</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9">
+        <v>3</v>
+      </c>
+      <c r="K4" s="9">
+        <v>3</v>
+      </c>
+      <c r="L4" s="9">
+        <v>1</v>
+      </c>
+      <c r="M4" s="9">
+        <v>5</v>
+      </c>
+      <c r="N4" s="9">
+        <v>8</v>
+      </c>
+      <c r="O4" s="9">
+        <v>2</v>
+      </c>
+      <c r="P4" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>1</v>
+      </c>
+      <c r="R4" s="9">
+        <v>1</v>
+      </c>
+      <c r="S4" s="9">
+        <v>4</v>
+      </c>
+      <c r="T4" s="9">
+        <v>1</v>
+      </c>
+      <c r="U4" s="9">
+        <v>1</v>
+      </c>
+      <c r="V4" s="9">
+        <v>1</v>
+      </c>
+      <c r="W4" s="9">
+        <v>1</v>
+      </c>
+      <c r="X4" s="9">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="9">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="9">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="AA4" s="9">
+        <f t="shared" si="1"/>
+        <v>23.888888888888889</v>
+      </c>
+      <c r="AB4" s="13">
+        <f>RANK(AA4,AA2:AA11,1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H5" s="2">
+        <v>10</v>
+      </c>
+      <c r="I5" s="2">
+        <v>10</v>
+      </c>
+      <c r="J5" s="2">
+        <v>9</v>
+      </c>
+      <c r="K5" s="2">
+        <v>6</v>
+      </c>
+      <c r="L5" s="2">
+        <v>6</v>
+      </c>
+      <c r="M5" s="2">
+        <v>7</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2">
+        <v>7</v>
+      </c>
+      <c r="P5" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>6</v>
+      </c>
+      <c r="R5" s="2">
+        <v>6</v>
+      </c>
+      <c r="S5" s="2">
+        <v>3</v>
+      </c>
+      <c r="T5" s="2">
+        <v>6</v>
+      </c>
+      <c r="U5" s="2">
+        <v>6</v>
+      </c>
+      <c r="V5" s="2">
+        <v>8</v>
+      </c>
+      <c r="W5" s="2">
+        <v>3</v>
+      </c>
+      <c r="X5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="2">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+      <c r="AA5" s="2">
+        <f t="shared" si="1"/>
+        <v>57.222222222222221</v>
+      </c>
+      <c r="AB5" s="18">
+        <f>RANK(AA5,AA2:AA11,1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H6" s="2">
+        <v>9</v>
+      </c>
+      <c r="I6" s="2">
+        <v>7</v>
+      </c>
+      <c r="J6" s="2">
+        <v>8</v>
+      </c>
+      <c r="K6" s="2">
+        <v>8</v>
+      </c>
+      <c r="L6" s="2">
+        <v>5</v>
+      </c>
+      <c r="M6" s="2">
+        <v>5</v>
+      </c>
+      <c r="N6" s="2">
+        <v>4</v>
+      </c>
+      <c r="O6" s="2">
+        <v>5</v>
+      </c>
+      <c r="P6" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>8</v>
+      </c>
+      <c r="R6" s="2">
+        <v>8</v>
+      </c>
+      <c r="S6" s="2">
+        <v>8</v>
+      </c>
+      <c r="T6" s="2">
+        <v>7</v>
+      </c>
+      <c r="U6" s="2">
+        <v>8</v>
+      </c>
+      <c r="V6" s="2">
+        <v>6</v>
+      </c>
+      <c r="W6" s="2">
+        <v>7</v>
+      </c>
+      <c r="X6" s="2">
+        <v>8</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>8</v>
+      </c>
+      <c r="Z6" s="2">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="AA6" s="2">
+        <f t="shared" si="1"/>
+        <v>68.888888888888886</v>
+      </c>
+      <c r="AB6" s="18">
+        <f>RANK(AA6,AA2:AA11,1)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H7" s="2">
+        <v>8</v>
+      </c>
+      <c r="I7" s="2">
+        <v>9</v>
+      </c>
+      <c r="J7" s="2">
+        <v>10</v>
+      </c>
+      <c r="K7" s="2">
+        <v>10</v>
+      </c>
+      <c r="L7" s="2">
+        <v>10</v>
+      </c>
+      <c r="M7" s="2">
+        <v>10</v>
+      </c>
+      <c r="N7" s="2">
+        <v>10</v>
+      </c>
+      <c r="O7" s="2">
+        <v>10</v>
+      </c>
+      <c r="P7" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>9</v>
+      </c>
+      <c r="R7" s="2">
+        <v>9</v>
+      </c>
+      <c r="S7" s="2">
+        <v>10</v>
+      </c>
+      <c r="T7" s="2">
+        <v>9</v>
+      </c>
+      <c r="U7" s="2">
+        <v>9</v>
+      </c>
+      <c r="V7" s="2">
+        <v>10</v>
+      </c>
+      <c r="W7" s="2">
+        <v>10</v>
+      </c>
+      <c r="X7" s="2">
+        <v>10</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>10</v>
+      </c>
+      <c r="Z7" s="2">
+        <f t="shared" si="0"/>
+        <v>173</v>
+      </c>
+      <c r="AA7" s="2">
+        <f t="shared" si="1"/>
+        <v>96.111111111111114</v>
+      </c>
+      <c r="AB7" s="18">
+        <f>RANK(AA7,AA2:AA11,1)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H8" s="2">
+        <v>6</v>
+      </c>
+      <c r="I8" s="2">
+        <v>5</v>
+      </c>
+      <c r="J8" s="2">
+        <v>6</v>
+      </c>
+      <c r="K8" s="2">
+        <v>7</v>
+      </c>
+      <c r="L8" s="2">
+        <v>4</v>
+      </c>
+      <c r="M8" s="2">
+        <v>4</v>
+      </c>
+      <c r="N8" s="2">
+        <v>6</v>
+      </c>
+      <c r="O8" s="2">
+        <v>6</v>
+      </c>
+      <c r="P8" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>5</v>
+      </c>
+      <c r="R8" s="2">
+        <v>4</v>
+      </c>
+      <c r="S8" s="2">
+        <v>6</v>
+      </c>
+      <c r="T8" s="2">
+        <v>5</v>
+      </c>
+      <c r="U8" s="2">
+        <v>5</v>
+      </c>
+      <c r="V8" s="2">
+        <v>5</v>
+      </c>
+      <c r="W8" s="2">
+        <v>4</v>
+      </c>
+      <c r="X8" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z8" s="2">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="AA8" s="2">
+        <f t="shared" si="1"/>
+        <v>52.222222222222221</v>
+      </c>
+      <c r="AB8" s="18">
+        <f>RANK(AA8,AA2:AA11,1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="H9" s="2">
+        <v>7</v>
+      </c>
+      <c r="I9" s="2">
+        <v>8</v>
+      </c>
+      <c r="J9" s="2">
+        <v>4</v>
+      </c>
+      <c r="K9" s="2">
+        <v>5</v>
+      </c>
+      <c r="L9" s="2">
+        <v>8</v>
+      </c>
+      <c r="M9" s="2">
+        <v>8</v>
+      </c>
+      <c r="N9" s="2">
+        <v>7</v>
+      </c>
+      <c r="O9" s="2">
+        <v>8</v>
+      </c>
+      <c r="P9" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>7</v>
+      </c>
+      <c r="R9" s="2">
+        <v>7</v>
+      </c>
+      <c r="S9" s="2">
+        <v>7</v>
+      </c>
+      <c r="T9" s="2">
+        <v>7</v>
+      </c>
+      <c r="U9" s="2">
+        <v>7</v>
+      </c>
+      <c r="V9" s="2">
+        <v>7</v>
+      </c>
+      <c r="W9" s="2">
+        <v>8</v>
+      </c>
+      <c r="X9" s="2">
+        <v>7</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>6</v>
+      </c>
+      <c r="Z9" s="2">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="AA9" s="2">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="AB9" s="18">
+        <f>RANK(AA9,AA2:AA11,1)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="H10" s="2">
+        <v>4</v>
+      </c>
+      <c r="I10" s="2">
+        <v>4</v>
+      </c>
+      <c r="J10" s="2">
+        <v>5</v>
+      </c>
+      <c r="K10" s="2">
+        <v>4</v>
+      </c>
+      <c r="L10" s="2">
+        <v>6</v>
+      </c>
+      <c r="M10" s="2">
+        <v>3</v>
+      </c>
+      <c r="N10" s="2">
+        <v>5</v>
+      </c>
+      <c r="O10" s="2">
+        <v>4</v>
+      </c>
+      <c r="P10" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>3</v>
+      </c>
+      <c r="R10" s="2">
+        <v>5</v>
+      </c>
+      <c r="S10" s="2">
+        <v>5</v>
+      </c>
+      <c r="T10" s="2">
+        <v>4</v>
+      </c>
+      <c r="U10" s="2">
+        <v>4</v>
+      </c>
+      <c r="V10" s="2">
+        <v>4</v>
+      </c>
+      <c r="W10" s="2">
+        <v>5</v>
+      </c>
+      <c r="X10" s="2">
+        <v>6</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>7</v>
+      </c>
+      <c r="Z10" s="2">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="AA10" s="2">
+        <f t="shared" si="1"/>
+        <v>45.555555555555557</v>
+      </c>
+      <c r="AB10" s="18">
+        <f>RANK(AA10,AA2:AA11,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2">
+        <v>6</v>
+      </c>
+      <c r="J11" s="2">
+        <v>7</v>
+      </c>
+      <c r="K11" s="2">
+        <v>9</v>
+      </c>
+      <c r="L11" s="2">
+        <v>9</v>
+      </c>
+      <c r="M11" s="2">
+        <v>9</v>
+      </c>
+      <c r="N11" s="2">
+        <v>9</v>
+      </c>
+      <c r="O11" s="2">
+        <v>9</v>
+      </c>
+      <c r="P11" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>10</v>
+      </c>
+      <c r="R11" s="2">
+        <v>10</v>
+      </c>
+      <c r="S11" s="2">
+        <v>9</v>
+      </c>
+      <c r="T11" s="2">
+        <v>10</v>
+      </c>
+      <c r="U11" s="2">
+        <v>10</v>
+      </c>
+      <c r="V11" s="2">
+        <v>9</v>
+      </c>
+      <c r="W11" s="2">
+        <v>9</v>
+      </c>
+      <c r="X11" s="2">
+        <v>9</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>9</v>
+      </c>
+      <c r="Z11" s="2">
+        <f t="shared" si="0"/>
+        <v>157</v>
+      </c>
+      <c r="AA11" s="2">
+        <f t="shared" si="1"/>
+        <v>87.222222222222229</v>
+      </c>
+      <c r="AB11" s="18">
+        <f>RANK(AA11,AA2:AA11,1)</f>
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{AA2AA36B-D2D1-401C-B5A3-804BF7158710}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{0A37F3EA-6B2C-402A-9DCF-C0FDFA3BC70B}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{5A5FC3E7-4795-4212-98A6-B78A368737D7}"/>
+    <hyperlink ref="G10" r:id="rId4" xr:uid="{BB66E701-FDFC-43EC-8D72-7C92E8EC14C6}"/>
+    <hyperlink ref="G9" r:id="rId5" xr:uid="{6B02668A-4D0F-44B5-BAB8-8CA9C30AF42C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8D85BD-C28E-442F-B177-AA615A2D13D5}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1756,10 +2767,10 @@
         <v>17</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>15</v>
@@ -1774,10 +2785,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>10</v>
@@ -1785,13 +2796,13 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>12</v>
@@ -1820,7 +2831,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>67</v>
@@ -1855,7 +2866,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>68</v>
@@ -1864,7 +2875,7 @@
         <v>81</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>38</v>
@@ -1890,16 +2901,16 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>39</v>
@@ -1917,7 +2928,7 @@
         <v>72</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>89</v>
+        <v>317</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>56</v>
@@ -1925,7 +2936,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>13</v>
@@ -1960,7 +2971,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>82</v>
@@ -1987,7 +2998,7 @@
         <v>74</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>90</v>
+        <v>318</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>58</v>
@@ -1995,16 +3006,16 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>14</v>
@@ -2022,7 +3033,7 @@
         <v>75</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>91</v>
+        <v>319</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>59</v>
@@ -2030,7 +3041,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>83</v>
@@ -2057,7 +3068,7 @@
         <v>76</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>60</v>
@@ -2065,7 +3076,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>84</v>
@@ -2092,7 +3103,7 @@
         <v>77</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>93</v>
+        <v>320</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>61</v>
@@ -2104,7 +3115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA877BA5-4E68-4DDE-9742-9DFA8F81B45C}">
   <dimension ref="A1:K10"/>
   <sheetViews>
@@ -2130,10 +3141,10 @@
         <v>17</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>15</v>
@@ -2148,10 +3159,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>10</v>
@@ -2159,1331 +3170,322 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>170</v>
+        <v>321</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>179</v>
+        <v>322</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="I10" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>183</v>
+        <v>323</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A6BE76-0B54-496F-9B94-087E467369C9}">
-  <dimension ref="A1:AB11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.58203125" style="1"/>
-    <col min="2" max="3" width="18.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="38.83203125" customWidth="1"/>
-    <col min="5" max="5" width="42.33203125" customWidth="1"/>
-    <col min="6" max="6" width="40.83203125" customWidth="1"/>
-    <col min="7" max="7" width="27.25" customWidth="1"/>
-    <col min="8" max="25" width="11.58203125" customWidth="1"/>
-    <col min="27" max="27" width="14.33203125" customWidth="1"/>
-    <col min="28" max="28" width="12.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="AB1" s="8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="H2" s="9">
-        <v>1</v>
-      </c>
-      <c r="I2" s="9">
-        <v>2</v>
-      </c>
-      <c r="J2" s="9">
-        <v>2</v>
-      </c>
-      <c r="K2" s="9">
-        <v>1</v>
-      </c>
-      <c r="L2" s="9">
-        <v>1</v>
-      </c>
-      <c r="M2" s="9">
-        <v>1</v>
-      </c>
-      <c r="N2" s="9">
-        <v>4</v>
-      </c>
-      <c r="O2" s="9">
-        <v>1</v>
-      </c>
-      <c r="P2" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="9">
-        <v>2</v>
-      </c>
-      <c r="R2" s="9">
-        <v>2</v>
-      </c>
-      <c r="S2" s="9">
-        <v>1</v>
-      </c>
-      <c r="T2" s="9">
-        <v>1</v>
-      </c>
-      <c r="U2" s="9">
-        <v>1</v>
-      </c>
-      <c r="V2" s="9">
-        <v>1</v>
-      </c>
-      <c r="W2" s="9">
-        <v>2</v>
-      </c>
-      <c r="X2" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="9">
-        <v>4</v>
-      </c>
-      <c r="Z2" s="9">
-        <f>SUM(H2:Y2)</f>
-        <v>29</v>
-      </c>
-      <c r="AA2" s="9">
-        <f>Z2*100/180</f>
-        <v>16.111111111111111</v>
-      </c>
-      <c r="AB2" s="13">
-        <f>RANK(AA2,AA2:AA11,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="H3" s="9">
-        <v>3</v>
-      </c>
-      <c r="I3" s="9">
-        <v>3</v>
-      </c>
-      <c r="J3" s="9">
-        <v>1</v>
-      </c>
-      <c r="K3" s="9">
-        <v>1</v>
-      </c>
-      <c r="L3" s="9">
-        <v>3</v>
-      </c>
-      <c r="M3" s="9">
-        <v>2</v>
-      </c>
-      <c r="N3" s="9">
-        <v>1</v>
-      </c>
-      <c r="O3" s="9">
-        <v>3</v>
-      </c>
-      <c r="P3" s="9">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="9">
-        <v>4</v>
-      </c>
-      <c r="R3" s="9">
-        <v>3</v>
-      </c>
-      <c r="S3" s="9">
-        <v>1</v>
-      </c>
-      <c r="T3" s="9">
-        <v>3</v>
-      </c>
-      <c r="U3" s="9">
-        <v>3</v>
-      </c>
-      <c r="V3" s="9">
-        <v>3</v>
-      </c>
-      <c r="W3" s="9">
-        <v>6</v>
-      </c>
-      <c r="X3" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="9">
-        <f t="shared" ref="Z3:Z11" si="0">SUM(H3:Y3)</f>
-        <v>45</v>
-      </c>
-      <c r="AA3" s="9">
-        <f t="shared" ref="AA3:AA11" si="1">Z3*100/180</f>
-        <v>25</v>
-      </c>
-      <c r="AB3" s="13">
-        <f>RANK(AA3,AA2:AA11,1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="H4" s="9">
-        <v>1</v>
-      </c>
-      <c r="I4" s="9">
-        <v>1</v>
-      </c>
-      <c r="J4" s="9">
-        <v>3</v>
-      </c>
-      <c r="K4" s="9">
-        <v>3</v>
-      </c>
-      <c r="L4" s="9">
-        <v>1</v>
-      </c>
-      <c r="M4" s="9">
-        <v>4</v>
-      </c>
-      <c r="N4" s="9">
-        <v>8</v>
-      </c>
-      <c r="O4" s="9">
-        <v>2</v>
-      </c>
-      <c r="P4" s="9">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="9">
-        <v>1</v>
-      </c>
-      <c r="R4" s="9">
-        <v>1</v>
-      </c>
-      <c r="S4" s="9">
-        <v>4</v>
-      </c>
-      <c r="T4" s="9">
-        <v>1</v>
-      </c>
-      <c r="U4" s="9">
-        <v>1</v>
-      </c>
-      <c r="V4" s="9">
-        <v>1</v>
-      </c>
-      <c r="W4" s="9">
-        <v>1</v>
-      </c>
-      <c r="X4" s="9">
-        <v>4</v>
-      </c>
-      <c r="Y4" s="9">
-        <v>3</v>
-      </c>
-      <c r="Z4" s="9">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="AA4" s="9">
-        <f t="shared" si="1"/>
-        <v>23.333333333333332</v>
-      </c>
-      <c r="AB4" s="13">
-        <f>RANK(AA4,AA2:AA11,1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H5" s="2">
-        <v>10</v>
-      </c>
-      <c r="I5" s="2">
-        <v>10</v>
-      </c>
-      <c r="J5" s="2">
-        <v>9</v>
-      </c>
-      <c r="K5" s="2">
-        <v>5</v>
-      </c>
-      <c r="L5" s="2">
-        <v>6</v>
-      </c>
-      <c r="M5" s="2">
-        <v>6</v>
-      </c>
-      <c r="N5" s="2">
-        <v>1</v>
-      </c>
-      <c r="O5" s="2">
-        <v>7</v>
-      </c>
-      <c r="P5" s="2">
-        <v>7</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>6</v>
-      </c>
-      <c r="R5" s="2">
-        <v>6</v>
-      </c>
-      <c r="S5" s="2">
-        <v>3</v>
-      </c>
-      <c r="T5" s="2">
-        <v>6</v>
-      </c>
-      <c r="U5" s="2">
-        <v>6</v>
-      </c>
-      <c r="V5" s="2">
-        <v>8</v>
-      </c>
-      <c r="W5" s="2">
-        <v>3</v>
-      </c>
-      <c r="X5" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="2">
-        <f t="shared" si="0"/>
-        <v>101</v>
-      </c>
-      <c r="AA5" s="2">
-        <f t="shared" si="1"/>
-        <v>56.111111111111114</v>
-      </c>
-      <c r="AB5" s="18">
-        <f>RANK(AA5,AA2:AA11,1)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="H6" s="2">
-        <v>9</v>
-      </c>
-      <c r="I6" s="2">
-        <v>7</v>
-      </c>
-      <c r="J6" s="2">
-        <v>8</v>
-      </c>
-      <c r="K6" s="2">
-        <v>7</v>
-      </c>
-      <c r="L6" s="2">
-        <v>5</v>
-      </c>
-      <c r="M6" s="2">
-        <v>4</v>
-      </c>
-      <c r="N6" s="2">
-        <v>5</v>
-      </c>
-      <c r="O6" s="2">
-        <v>5</v>
-      </c>
-      <c r="P6" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>8</v>
-      </c>
-      <c r="R6" s="2">
-        <v>8</v>
-      </c>
-      <c r="S6" s="2">
-        <v>7</v>
-      </c>
-      <c r="T6" s="2">
-        <v>7</v>
-      </c>
-      <c r="U6" s="2">
-        <v>8</v>
-      </c>
-      <c r="V6" s="2">
-        <v>6</v>
-      </c>
-      <c r="W6" s="2">
-        <v>7</v>
-      </c>
-      <c r="X6" s="2">
-        <v>7</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>7</v>
-      </c>
-      <c r="Z6" s="2">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="AA6" s="2">
-        <f t="shared" si="1"/>
-        <v>66.666666666666671</v>
-      </c>
-      <c r="AB6" s="18">
-        <f>RANK(AA6,AA2:AA11,1)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="H7" s="2">
-        <v>8</v>
-      </c>
-      <c r="I7" s="2">
-        <v>9</v>
-      </c>
-      <c r="J7" s="2">
-        <v>10</v>
-      </c>
-      <c r="K7" s="2">
-        <v>9</v>
-      </c>
-      <c r="L7" s="2">
-        <v>10</v>
-      </c>
-      <c r="M7" s="2">
-        <v>10</v>
-      </c>
-      <c r="N7" s="2">
-        <v>10</v>
-      </c>
-      <c r="O7" s="2">
-        <v>10</v>
-      </c>
-      <c r="P7" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>9</v>
-      </c>
-      <c r="R7" s="2">
-        <v>9</v>
-      </c>
-      <c r="S7" s="2">
-        <v>10</v>
-      </c>
-      <c r="T7" s="2">
-        <v>9</v>
-      </c>
-      <c r="U7" s="2">
-        <v>9</v>
-      </c>
-      <c r="V7" s="2">
-        <v>10</v>
-      </c>
-      <c r="W7" s="2">
-        <v>10</v>
-      </c>
-      <c r="X7" s="2">
-        <v>9</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>9</v>
-      </c>
-      <c r="Z7" s="2">
-        <f t="shared" si="0"/>
-        <v>170</v>
-      </c>
-      <c r="AA7" s="2">
-        <f t="shared" si="1"/>
-        <v>94.444444444444443</v>
-      </c>
-      <c r="AB7" s="18">
-        <f>RANK(AA7,AA2:AA11,1)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="H8" s="2">
-        <v>6</v>
-      </c>
-      <c r="I8" s="2">
-        <v>5</v>
-      </c>
-      <c r="J8" s="2">
-        <v>6</v>
-      </c>
-      <c r="K8" s="2">
-        <v>6</v>
-      </c>
-      <c r="L8" s="2">
-        <v>4</v>
-      </c>
-      <c r="M8" s="2">
-        <v>3</v>
-      </c>
-      <c r="N8" s="2">
-        <v>6</v>
-      </c>
-      <c r="O8" s="2">
-        <v>6</v>
-      </c>
-      <c r="P8" s="2">
-        <v>6</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>5</v>
-      </c>
-      <c r="R8" s="2">
-        <v>4</v>
-      </c>
-      <c r="S8" s="2">
-        <v>5</v>
-      </c>
-      <c r="T8" s="2">
-        <v>5</v>
-      </c>
-      <c r="U8" s="2">
-        <v>5</v>
-      </c>
-      <c r="V8" s="2">
-        <v>5</v>
-      </c>
-      <c r="W8" s="2">
-        <v>4</v>
-      </c>
-      <c r="X8" s="2">
-        <v>5</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>5</v>
-      </c>
-      <c r="Z8" s="2">
-        <f t="shared" si="0"/>
-        <v>91</v>
-      </c>
-      <c r="AA8" s="2">
-        <f t="shared" si="1"/>
-        <v>50.555555555555557</v>
-      </c>
-      <c r="AB8" s="18">
-        <f>RANK(AA8,AA2:AA11,1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="H9" s="2">
-        <v>7</v>
-      </c>
-      <c r="I9" s="2">
-        <v>8</v>
-      </c>
-      <c r="J9" s="2">
-        <v>4</v>
-      </c>
-      <c r="K9" s="2">
-        <v>4</v>
-      </c>
-      <c r="L9" s="2">
-        <v>8</v>
-      </c>
-      <c r="M9" s="2">
-        <v>7</v>
-      </c>
-      <c r="N9" s="2">
-        <v>7</v>
-      </c>
-      <c r="O9" s="2">
-        <v>8</v>
-      </c>
-      <c r="P9" s="2">
-        <v>8</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>7</v>
-      </c>
-      <c r="R9" s="2">
-        <v>7</v>
-      </c>
-      <c r="S9" s="2">
-        <v>6</v>
-      </c>
-      <c r="T9" s="2">
-        <v>7</v>
-      </c>
-      <c r="U9" s="2">
-        <v>7</v>
-      </c>
-      <c r="V9" s="2">
-        <v>7</v>
-      </c>
-      <c r="W9" s="2">
-        <v>8</v>
-      </c>
-      <c r="X9" s="2">
-        <v>6</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>6</v>
-      </c>
-      <c r="Z9" s="2">
-        <f t="shared" si="0"/>
-        <v>122</v>
-      </c>
-      <c r="AA9" s="2">
-        <f t="shared" si="1"/>
-        <v>67.777777777777771</v>
-      </c>
-      <c r="AB9" s="18">
-        <f>RANK(AA9,AA2:AA11,1)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="H10" s="2">
-        <v>4</v>
-      </c>
-      <c r="I10" s="2">
-        <v>4</v>
-      </c>
-      <c r="J10" s="2">
-        <v>5</v>
-      </c>
-      <c r="K10" s="2">
-        <v>10</v>
-      </c>
-      <c r="L10" s="2">
-        <v>6</v>
-      </c>
-      <c r="M10" s="2">
-        <v>8</v>
-      </c>
-      <c r="N10" s="2">
-        <v>3</v>
-      </c>
-      <c r="O10" s="2">
-        <v>4</v>
-      </c>
-      <c r="P10" s="2">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>3</v>
-      </c>
-      <c r="R10" s="2">
-        <v>5</v>
-      </c>
-      <c r="S10" s="2">
-        <v>9</v>
-      </c>
-      <c r="T10" s="2">
-        <v>4</v>
-      </c>
-      <c r="U10" s="2">
-        <v>4</v>
-      </c>
-      <c r="V10" s="2">
-        <v>4</v>
-      </c>
-      <c r="W10" s="2">
-        <v>5</v>
-      </c>
-      <c r="X10" s="2">
-        <v>10</v>
-      </c>
-      <c r="Y10" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z10" s="2">
-        <f t="shared" si="0"/>
-        <v>102</v>
-      </c>
-      <c r="AA10" s="2">
-        <f t="shared" si="1"/>
-        <v>56.666666666666664</v>
-      </c>
-      <c r="AB10" s="18">
-        <f>RANK(AA10,AA2:AA11,1)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H11" s="2">
-        <v>5</v>
-      </c>
-      <c r="I11" s="2">
-        <v>6</v>
-      </c>
-      <c r="J11" s="2">
-        <v>7</v>
-      </c>
-      <c r="K11" s="2">
-        <v>8</v>
-      </c>
-      <c r="L11" s="2">
-        <v>9</v>
-      </c>
-      <c r="M11" s="2">
-        <v>9</v>
-      </c>
-      <c r="N11" s="2">
-        <v>9</v>
-      </c>
-      <c r="O11" s="2">
-        <v>9</v>
-      </c>
-      <c r="P11" s="2">
-        <v>9</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>10</v>
-      </c>
-      <c r="R11" s="2">
-        <v>10</v>
-      </c>
-      <c r="S11" s="2">
-        <v>8</v>
-      </c>
-      <c r="T11" s="2">
-        <v>10</v>
-      </c>
-      <c r="U11" s="2">
-        <v>10</v>
-      </c>
-      <c r="V11" s="2">
-        <v>9</v>
-      </c>
-      <c r="W11" s="2">
-        <v>9</v>
-      </c>
-      <c r="X11" s="2">
-        <v>8</v>
-      </c>
-      <c r="Y11" s="2">
-        <v>8</v>
-      </c>
-      <c r="Z11" s="2">
-        <f t="shared" si="0"/>
-        <v>153</v>
-      </c>
-      <c r="AA11" s="2">
-        <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="AB11" s="18">
-        <f>RANK(AA11,AA2:AA11,1)</f>
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{AA2AA36B-D2D1-401C-B5A3-804BF7158710}"/>
-    <hyperlink ref="G4" r:id="rId2" xr:uid="{0A37F3EA-6B2C-402A-9DCF-C0FDFA3BC70B}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{5A5FC3E7-4795-4212-98A6-B78A368737D7}"/>
-    <hyperlink ref="G10" r:id="rId4" xr:uid="{BB66E701-FDFC-43EC-8D72-7C92E8EC14C6}"/>
-    <hyperlink ref="G9" r:id="rId5" xr:uid="{6B02668A-4D0F-44B5-BAB8-8CA9C30AF42C}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -3505,10 +3507,10 @@
         <v>17</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>15</v>
@@ -3523,10 +3525,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>10</v>
@@ -3537,34 +3539,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -3572,34 +3574,34 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -3607,34 +3609,34 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -3642,34 +3644,34 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -3677,34 +3679,34 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -3712,34 +3714,34 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -3747,34 +3749,34 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/2023/Results.xlsx
+++ b/2023/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\cec upload\IEEE-CEC-NAS-Competition\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADDDE3C-03F2-4200-A03C-92A0936ACFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25990C3-31E8-4311-974E-BA5B0E82690E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,10 +52,6 @@
     <t>C10MOP7</t>
   </si>
   <si>
-    <t>NSGAII</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MOEA/D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1204,6 +1200,10 @@
   </si>
   <si>
     <t>0.0907 (0.0099)-</t>
+  </si>
+  <si>
+    <t>NSGA-II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1734,7 +1734,7 @@
   <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1752,88 +1752,88 @@
   <sheetData>
     <row r="1" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>191</v>
-      </c>
       <c r="H1" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="Y1" s="4" t="s">
-        <v>309</v>
-      </c>
       <c r="Z1" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA1" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="8" t="s">
         <v>224</v>
-      </c>
-      <c r="AB1" s="8" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1841,22 +1841,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H2" s="9">
         <v>1</v>
@@ -1930,22 +1930,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E3" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="12" t="s">
         <v>200</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>201</v>
       </c>
       <c r="H3" s="9">
         <v>3</v>
@@ -2019,22 +2019,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>195</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>196</v>
       </c>
       <c r="H4" s="9">
         <v>1</v>
@@ -2108,22 +2108,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H5" s="2">
         <v>10</v>
@@ -2197,22 +2197,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H6" s="2">
         <v>9</v>
@@ -2286,22 +2286,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H7" s="2">
         <v>8</v>
@@ -2375,22 +2375,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>7</v>
+        <v>326</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H8" s="2">
         <v>6</v>
@@ -2464,22 +2464,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D9" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="F9" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="G9" s="20" t="s">
         <v>206</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>207</v>
       </c>
       <c r="H9" s="2">
         <v>7</v>
@@ -2553,22 +2553,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D10" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="F10" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="G10" s="20" t="s">
         <v>203</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>204</v>
       </c>
       <c r="H10" s="2">
         <v>4</v>
@@ -2642,22 +2642,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H11" s="2">
         <v>5</v>
@@ -2764,349 +2764,349 @@
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3119,7 +3119,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA877BA5-4E68-4DDE-9742-9DFA8F81B45C}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3138,354 +3140,355 @@
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="J3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="J8" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="J10" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3493,7 +3496,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9570692C-26A0-4804-96DB-F7450E6CB973}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3504,34 +3509,34 @@
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="J1" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -3539,34 +3544,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -3574,34 +3579,34 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -3609,34 +3614,34 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -3644,34 +3649,34 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -3679,34 +3684,34 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -3714,34 +3719,34 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -3749,34 +3754,34 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>290</v>
       </c>
     </row>
   </sheetData>
